--- a/biology/Histoire de la zoologie et de la botanique/Léopold_Reichling/Léopold_Reichling.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léopold_Reichling/Léopold_Reichling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9opold_Reichling</t>
+          <t>Léopold_Reichling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léopold Reichling, né le 11 mars 1921 à Luxembourg et y décédé[1] le 2 mai 2009, est un biologiste et naturaliste luxembourgeois.
-Il est surtout connu pour ses publications dans les domaines de la botanique, de la zoologie et de la conservation de la nature. Il a réuni trois collections scientifiques majeures : un herbier, une collection d'hétéroptères et une collection d'artéfacts humains de l'âge de la pierre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léopold Reichling, né le 11 mars 1921 à Luxembourg et y décédé le 2 mai 2009, est un biologiste et naturaliste luxembourgeois.
+Il est surtout connu pour ses publications dans les domaines de la botanique, de la zoologie et de la conservation de la nature. Il a réuni trois collections scientifiques majeures : un herbier, une collection d'hétéroptères et une collection d'artéfacts humains de l'âge de la pierre.
 Les taxa suivants ont été nommés d'après Léopold Reichling :
-Asplenium ×reichlingii Lawalrée, 1951 ; une monstruosité de la fougère Asplenium trichomanes[3] ;
-Taraxacum reichlingii Soest, 1971 ; une plante à fleurs[4] ;
-Lichenoconium reichlingii Diederich, 1986 ; un champignon lichénicole[5] ;
-Reichlingia leopoldii Diederich &amp; Scheid., 1996 ; un lichen[6].
+Asplenium ×reichlingii Lawalrée, 1951 ; une monstruosité de la fougère Asplenium trichomanes ;
+Taraxacum reichlingii Soest, 1971 ; une plante à fleurs ;
+Lichenoconium reichlingii Diederich, 1986 ; un champignon lichénicole ;
+Reichlingia leopoldii Diederich &amp; Scheid., 1996 ; un lichen.
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9opold_Reichling</t>
+          <t>Léopold_Reichling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,13 +531,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Études et carrière
-Léopold Reichling a poursuivi ses études universitaires à Fribourg-en-Brisgau, Munich, Goettingue et Louvain. Il clôtura ses études par un doctorat en sciences naturelles en 1947. Suivit son stage d'aspirant-professeur au Lycée de garçons de Luxembourg-ville, durant lequel il réalisa une dissertation sur la végétation du Languedoc[7] auprès des phytosociologues Marie Louis Emberger à Montpellier et Georges Lemée à Strasbourg.
+          <t>Études et carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léopold Reichling a poursuivi ses études universitaires à Fribourg-en-Brisgau, Munich, Goettingue et Louvain. Il clôtura ses études par un doctorat en sciences naturelles en 1947. Suivit son stage d'aspirant-professeur au Lycée de garçons de Luxembourg-ville, durant lequel il réalisa une dissertation sur la végétation du Languedoc auprès des phytosociologues Marie Louis Emberger à Montpellier et Georges Lemée à Strasbourg.
 Léopold Reichling a commencé sa carrière en 1949 en tant que professeur de sciences naturelles (biologie) au Lycée de garçons de Luxembourg-ville. La même année il fut partiellement détaché auprès du Musée national d'histoire naturelle du Luxembourg pour la réalisation d'une cartographie phytosociologique du Grand-Duché. À cet effet un service spécial fut instauré auprès du musée, le service de la carte des groupements végétaux, que Reichling dirigea jusqu'en 1967. En 1957, il est devenu professeur de botanique aux Cours supérieurs de Luxembourg (ébauche de l'actuelle Université du Luxembourg), en 1980 professeur au département des sciences du Centre universitaire de Luxembourg (autre précurseur de l'université actuelle).
-Reichling est considéré comme pionnier de la phytosociologie au Luxembourg[8] et comme éminent spécialiste de la flore du Grand-Duché. Après son départ à la retraite en 1981, il s'adonna intensivement à l'étude des hétéroptères terrestres du Luxembourg, alors que dans les années 1960 il avait déjà secondé son collègue Jos. Hoffmann dans l'étude des orthoptères du Grand-Duché.
+Reichling est considéré comme pionnier de la phytosociologie au Luxembourg et comme éminent spécialiste de la flore du Grand-Duché. Après son départ à la retraite en 1981, il s'adonna intensivement à l'étude des hétéroptères terrestres du Luxembourg, alors que dans les années 1960 il avait déjà secondé son collègue Jos. Hoffmann dans l'étude des orthoptères du Grand-Duché.
 En 1997, Reichling reçut le prix « Hëllef fir d'Natur » en reconnaissance de ses travaux de recherche et de son engagement en faveur de la protection de la nature au Luxembourg.
-Fonctions associatives et honorifiques
-1962-1968 - président de la Société des naturalistes luxembourgeois (SNL) ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Léopold_Reichling</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9opold_Reichling</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fonctions associatives et honorifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1962-1968 - président de la Société des naturalistes luxembourgeois (SNL) ;
 président de la ligue NATURA, organisation de protection de la nature ;
 vice-président de la section des sciences de l'Institut Grand-ducal ;
 membre du conseil d'administration de la « Fondation Hëllef fir d'Natur » ;
@@ -538,34 +590,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>L%C3%A9opold_Reichling</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Léopold_Reichling</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%C3%A9opold_Reichling</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Botanique
-Reichling, L., 1949. Une étude phytosociologique faite en Languedoc. - XXIVp., 141p., carte, fig., ill., tabl. Mémoire non publié, Luxembourg.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Reichling, L., 1949. Une étude phytosociologique faite en Languedoc. - XXIVp., 141p., carte, fig., ill., tabl. Mémoire non publié, Luxembourg.
 Reichling, L., 1951. Les forêts du Grès de Luxembourg. Bull. Soc. r. Bot. Belg. 83: 163-212.
 Reichling, L., 1954. L’élément atlantique dans la végétation de la vallée inférieure de l’Ernz noire (G.-D. de Luxembourg). Archs Inst. g.-d. Luxemb., sect. sci. nat., phys. math. 21: 99-114.
 Reichling, L., 1955. Les Epipactis de la flore luxembourgeoise. Archs Inst. g.-d. Luxemb., sect. sci. nat., phys., math., N.S., 22: 123-145.
@@ -576,9 +633,43 @@
 Reichling, L., 1974. In Luxemburg geschützte Pflanzen. Übersicht sowie Anleitung zum Kennenlernen der in Luxemburg geschützten wildwachsenden Pflanzenarten. Natura (éd.), Luxemburg, 23 p.
 Reichling, L., 1981. « 30 années d'observations floristiques au Luxembourg, 1949-1979. »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) Bull. Soc. Nat. luxemb. 83-84: 75-95.
 Reichling, L., 1990. « Observations floristiques au Luxembourg 1980-1989. »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) Bull. Soc. Nat. luxemb. 90 (1990): 55-70.
-Reichling, L. &amp; R. Thorn (collab.), 1997. Trichomanes speciosum Willd., un mystérieux passager clandestin. Adoxa, No 15/16 (avril 1997): 1-3.
-Zoologie
-Reichling, L., 1951. « Le Gastéropode Helix aspersa Müller (petit-gris) aux environs de Luxembourg. »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) Bull. Soc. Nat. luxemb. 55 : 362-367.
+Reichling, L. &amp; R. Thorn (collab.), 1997. Trichomanes speciosum Willd., un mystérieux passager clandestin. Adoxa, No 15/16 (avril 1997): 1-3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Léopold_Reichling</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9opold_Reichling</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Reichling, L., 1951. « Le Gastéropode Helix aspersa Müller (petit-gris) aux environs de Luxembourg. »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) Bull. Soc. Nat. luxemb. 55 : 362-367.
 Reichling, L., 1952. « Nouvelles observations du Gastéropode Helix aspersa Müller au Grand-Duché de Luxembourg. »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) Bull. Soc. Nat. luxemb. 56: 24-25.
 Hoffmann, J. &amp; L. Reichling, 1963. Supplément à la faune des Orthoptères du Grand-Duché de Luxembourg. Archs Inst. g.-d. Luxemb., sect. sci. nat., phys. math., N.S. 25 (1962): 129-157.
 Reichling, L. 1984. Hétéroptères du Grand-Duché de Luxembourg. 1. Psallus (Hylopsallus) pseudoplatani n. sp. (Miridae, Phylinae) et espèces apparentées. Travaux Scientifiques du Musée d'Histoire Naturelle de Luxembourg, 4 (1): 1-18.
